--- a/upload/frontdesk.xlsx
+++ b/upload/frontdesk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" state="visible" r:id="rId2"/>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">Shillo</t>
   </si>
   <si>
-    <t xml:space="preserve">Bibi Titi Road, Pension Tower, Dar es salaam </t>
+    <t xml:space="preserve">Bibi Titi Road, Pension Tower</t>
   </si>
   <si>
     <t xml:space="preserve">firstName</t>
@@ -433,9 +433,9 @@
       <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +504,7 @@
       <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.05"/>
@@ -1728,14 +1728,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.25"/>
   </cols>
   <sheetData>
@@ -1785,13 +1785,13 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T9" activeCellId="0" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
